--- a/Retailers4.xlsx
+++ b/Retailers4.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$J$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$K$53</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="61">
   <si>
     <t>STATE</t>
   </si>
@@ -618,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -629,8 +630,8 @@
   <dimension ref="B1:U200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -744,21 +745,25 @@
     </row>
     <row r="4" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -772,24 +777,34 @@
     </row>
     <row r="5" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -804,34 +819,34 @@
     </row>
     <row r="6" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -846,34 +861,34 @@
     </row>
     <row r="7" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -888,34 +903,34 @@
     </row>
     <row r="8" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -930,34 +945,34 @@
     </row>
     <row r="9" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -972,34 +987,24 @@
     </row>
     <row r="10" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1014,24 +1019,34 @@
     </row>
     <row r="11" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K11" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1046,34 +1061,30 @@
     </row>
     <row r="12" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1088,30 +1099,32 @@
     </row>
     <row r="13" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K13" s="4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1126,32 +1139,26 @@
     </row>
     <row r="14" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1166,26 +1173,34 @@
     </row>
     <row r="15" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K15" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1200,34 +1215,28 @@
     </row>
     <row r="16" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1242,28 +1251,32 @@
     </row>
     <row r="17" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K17" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1278,32 +1291,32 @@
     </row>
     <row r="18" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1318,32 +1331,32 @@
     </row>
     <row r="19" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1358,23 +1371,23 @@
     </row>
     <row r="20" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1388,32 +1401,28 @@
     </row>
     <row r="21" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1428,22 +1437,32 @@
     </row>
     <row r="22" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K22" s="4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1458,28 +1477,32 @@
     </row>
     <row r="23" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1494,32 +1517,30 @@
     </row>
     <row r="24" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F24" s="4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1534,32 +1555,34 @@
     </row>
     <row r="25" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="J25" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1574,30 +1597,30 @@
     </row>
     <row r="26" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="K26" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1612,34 +1635,34 @@
     </row>
     <row r="27" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1654,23 +1677,35 @@
     </row>
     <row r="28" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1684,30 +1719,22 @@
     </row>
     <row r="29" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="J29" s="6"/>
       <c r="K29" s="4" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1722,34 +1749,30 @@
     </row>
     <row r="30" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -1764,21 +1787,35 @@
     </row>
     <row r="31" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F31" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1792,34 +1829,30 @@
     </row>
     <row r="32" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I32" s="6"/>
       <c r="J32" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1834,22 +1867,34 @@
     </row>
     <row r="33" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K33" s="4" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1864,30 +1909,34 @@
     </row>
     <row r="34" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="J34" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1902,34 +1951,24 @@
     </row>
     <row r="35" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1944,30 +1983,34 @@
     </row>
     <row r="36" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F36" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J36" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1982,34 +2025,26 @@
     </row>
     <row r="37" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2024,34 +2059,34 @@
     </row>
     <row r="38" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2066,24 +2101,24 @@
     </row>
     <row r="39" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2098,34 +2133,32 @@
     </row>
     <row r="40" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I40" s="6"/>
       <c r="J40" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2140,21 +2173,25 @@
     </row>
     <row r="41" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="8"/>
+      <c r="K41" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -2168,26 +2205,34 @@
     </row>
     <row r="42" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F42" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="K42" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2202,34 +2247,34 @@
     </row>
     <row r="43" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2244,24 +2289,32 @@
     </row>
     <row r="44" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E44" s="6"/>
       <c r="F44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="K44" s="4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2276,32 +2329,34 @@
     </row>
     <row r="45" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J45" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2316,24 +2371,28 @@
     </row>
     <row r="46" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E46" s="6"/>
       <c r="F46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H46" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2348,21 +2407,35 @@
     </row>
     <row r="47" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -2376,35 +2449,21 @@
     </row>
     <row r="48" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="8"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -2418,35 +2477,23 @@
     </row>
     <row r="49" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G49" s="6"/>
       <c r="H49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="8"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2460,33 +2507,23 @@
     </row>
     <row r="50" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="8"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -2500,35 +2537,21 @@
     </row>
     <row r="51" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="8"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -2542,29 +2565,21 @@
     </row>
     <row r="52" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="K52" s="8"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -2578,35 +2593,21 @@
     </row>
     <row r="53" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="8"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -5853,9 +5854,9 @@
       <c r="U200" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:J53">
-    <sortState ref="B3:J53">
-      <sortCondition ref="C2:C53"/>
+  <autoFilter ref="C2:K53">
+    <sortState ref="C3:K53">
+      <sortCondition ref="K2:K53"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5866,4 +5867,251 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A87">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Retailers4.xlsx
+++ b/Retailers4.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alain/Desktop/My Documents/1. PASSION SPIRITS/1. E-Commerce Platform/6.SHIPPING/2. Shipping Chart MAGENTO/pstablerates-master/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="-32160" yWindow="-1120" windowWidth="28560" windowHeight="19180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$K$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$M$53</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="113">
   <si>
     <t>STATE</t>
   </si>
@@ -206,13 +210,169 @@
   </si>
   <si>
     <t>Alphabet City Wine Co.</t>
+  </si>
+  <si>
+    <t>ALASKA</t>
+  </si>
+  <si>
+    <t>ALABAMA</t>
+  </si>
+  <si>
+    <t>ARIZONA</t>
+  </si>
+  <si>
+    <t>ARKANSAS</t>
+  </si>
+  <si>
+    <t>CALIFORNIA</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>CONNETICUT</t>
+  </si>
+  <si>
+    <t>DISTRICT OF COLUMBIA</t>
+  </si>
+  <si>
+    <t>DELAWARE</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>GEORGIA</t>
+  </si>
+  <si>
+    <t>HAWAI</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>IDAHO</t>
+  </si>
+  <si>
+    <t>ILLINOIS</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>KANSAS</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>LOUSIANA</t>
+  </si>
+  <si>
+    <t>MASSACHUSETTS</t>
+  </si>
+  <si>
+    <t>MARYLAND</t>
+  </si>
+  <si>
+    <t>MAINE</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>MINNESOTA</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>MONTANA</t>
+  </si>
+  <si>
+    <t>NORTH CAROLINA</t>
+  </si>
+  <si>
+    <t>NORTH DAKOTA</t>
+  </si>
+  <si>
+    <t>NEBRASKA</t>
+  </si>
+  <si>
+    <t>NEW HAMPSHIRE</t>
+  </si>
+  <si>
+    <t>NEW JERSEY</t>
+  </si>
+  <si>
+    <t>NEW MEXICO</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>OKLAHOMA</t>
+  </si>
+  <si>
+    <t>OREGON</t>
+  </si>
+  <si>
+    <t>PENSYLVANIA</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>SOUTH CAROLINA</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>TENNESSEE</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>VERMONT</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>WINSCONSIN</t>
+  </si>
+  <si>
+    <t>WEST VIRGINIA</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>Alphabet City Beer Co.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,7 +384,6 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="161"/>
     </font>
     <font>
       <u/>
@@ -242,14 +401,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +424,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +452,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -315,8 +462,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -336,22 +497,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+  <cellStyles count="23">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,19 +796,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U200"/>
+  <dimension ref="B1:W200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3:K47"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="2"/>
+    <col min="1" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -660,8 +831,10 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="2:21" ht="66" x14ac:dyDescent="0.25">
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="85" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
@@ -669,31 +842,35 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -702,38 +879,30 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -742,30 +911,44 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -774,16 +957,18 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
+      <c r="D5" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
@@ -806,8 +991,12 @@
       <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="L5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -816,40 +1005,32 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -858,40 +1039,46 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -900,40 +1087,46 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -942,40 +1135,46 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -984,30 +1183,32 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1016,40 +1217,46 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1058,36 +1265,46 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1096,38 +1313,42 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H13" s="4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1136,32 +1357,44 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="K14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1170,16 +1403,18 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>16</v>
+      <c r="D15" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>16</v>
@@ -1202,8 +1437,12 @@
       <c r="K15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="L15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1212,34 +1451,40 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="6"/>
+      <c r="L16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1248,16 +1493,18 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
+      <c r="D17" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>17</v>
@@ -1265,10 +1512,10 @@
       <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1278,8 +1525,12 @@
       <c r="K17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="L17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1288,38 +1539,38 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1328,38 +1579,44 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="6"/>
       <c r="K19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1368,28 +1625,32 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>18</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1398,34 +1659,44 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>19</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="6"/>
       <c r="K21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1434,21 +1705,23 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>20</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="4" t="s">
         <v>18</v>
       </c>
@@ -1464,8 +1737,12 @@
       <c r="K22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="L22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1474,38 +1751,40 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="6"/>
       <c r="K23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1514,36 +1793,34 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1552,40 +1829,44 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J25" s="6"/>
       <c r="K25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1594,36 +1875,42 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1632,40 +1919,32 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H27" s="6"/>
       <c r="I27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1674,40 +1953,46 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>26</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1716,28 +2001,42 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>27</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="E29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1746,36 +2045,46 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="J30" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1784,40 +2093,42 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>29</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F31" s="6"/>
       <c r="G31" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J31" s="6"/>
       <c r="K31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1826,36 +2137,34 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -1864,40 +2173,42 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -1906,40 +2217,46 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>32</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -1948,30 +2265,46 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>33</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -1980,40 +2313,46 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -2022,32 +2361,34 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>35</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="F37" s="6"/>
       <c r="G37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2056,40 +2397,46 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2098,30 +2445,32 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="J39" s="6"/>
-      <c r="K39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2130,38 +2479,46 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-    </row>
-    <row r="40" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J40" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2170,30 +2527,30 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
         <v>39</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2202,40 +2559,34 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <v>40</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2244,40 +2595,46 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2286,38 +2643,36 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
         <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="F44" s="6"/>
       <c r="G44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H44" s="6"/>
       <c r="I44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2326,40 +2681,44 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
         <v>43</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J45" s="6"/>
       <c r="K45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2368,34 +2727,36 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <v>44</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="J46" s="6"/>
-      <c r="K46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -2404,40 +2765,30 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
         <v>45</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2446,26 +2797,46 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -2474,28 +2845,46 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
         <v>47</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F49" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H49" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2504,28 +2893,44 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
         <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="H50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -2534,26 +2939,40 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="3">
         <v>49</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J51" s="6"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2562,26 +2981,46 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
         <v>50</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -2590,26 +3029,46 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
         <v>51</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -2618,8 +3077,10 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2640,8 +3101,10 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2662,8 +3125,10 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2684,8 +3149,10 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2706,8 +3173,10 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2728,8 +3197,10 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2750,8 +3221,10 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2772,8 +3245,10 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2794,8 +3269,10 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2816,8 +3293,10 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
-    </row>
-    <row r="63" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2838,8 +3317,10 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2860,8 +3341,10 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
-    </row>
-    <row r="65" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2882,8 +3365,10 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2904,8 +3389,10 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2926,8 +3413,10 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2948,8 +3437,10 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-    </row>
-    <row r="69" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+    </row>
+    <row r="69" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2970,8 +3461,10 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
-    </row>
-    <row r="70" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+    </row>
+    <row r="70" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2992,8 +3485,10 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
-    </row>
-    <row r="71" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+    </row>
+    <row r="71" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3014,8 +3509,10 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
-    </row>
-    <row r="72" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3036,8 +3533,10 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3058,8 +3557,10 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
-    </row>
-    <row r="74" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3080,8 +3581,10 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
-    </row>
-    <row r="75" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3102,8 +3605,10 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3124,8 +3629,10 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3146,8 +3653,10 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3168,8 +3677,10 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3190,8 +3701,10 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-    </row>
-    <row r="80" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+    </row>
+    <row r="80" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3212,8 +3725,10 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
-    </row>
-    <row r="81" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3234,8 +3749,10 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
-    </row>
-    <row r="82" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+    </row>
+    <row r="82" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3256,8 +3773,10 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
-    </row>
-    <row r="83" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+    </row>
+    <row r="83" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3278,8 +3797,10 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
-    </row>
-    <row r="84" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3300,8 +3821,10 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
-    </row>
-    <row r="85" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+    </row>
+    <row r="85" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3322,8 +3845,10 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
-    </row>
-    <row r="86" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+    </row>
+    <row r="86" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3344,8 +3869,10 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
-    </row>
-    <row r="87" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+    </row>
+    <row r="87" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3366,8 +3893,10 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
-    </row>
-    <row r="88" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+    </row>
+    <row r="88" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3388,8 +3917,10 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
-    </row>
-    <row r="89" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+    </row>
+    <row r="89" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3410,8 +3941,10 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
-    </row>
-    <row r="90" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3432,8 +3965,10 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
-    </row>
-    <row r="91" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+    </row>
+    <row r="91" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3454,8 +3989,10 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
-    </row>
-    <row r="92" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3476,8 +4013,10 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
-    </row>
-    <row r="93" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3498,8 +4037,10 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
-    </row>
-    <row r="94" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3520,8 +4061,10 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
-    </row>
-    <row r="95" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3542,8 +4085,10 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
-    </row>
-    <row r="96" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3564,8 +4109,10 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
-    </row>
-    <row r="97" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+    </row>
+    <row r="97" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3586,8 +4133,10 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
-    </row>
-    <row r="98" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+    </row>
+    <row r="98" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3608,8 +4157,10 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
-    </row>
-    <row r="99" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+    </row>
+    <row r="99" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3630,8 +4181,10 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
-    </row>
-    <row r="100" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+    </row>
+    <row r="100" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3652,8 +4205,10 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
-    </row>
-    <row r="101" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+    </row>
+    <row r="101" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3674,8 +4229,10 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
-    </row>
-    <row r="102" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3696,8 +4253,10 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
-    </row>
-    <row r="103" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+    </row>
+    <row r="103" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3718,8 +4277,10 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
-    </row>
-    <row r="104" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+    </row>
+    <row r="104" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3740,8 +4301,10 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
-    </row>
-    <row r="105" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+    </row>
+    <row r="105" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3762,8 +4325,10 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
-    </row>
-    <row r="106" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+    </row>
+    <row r="106" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3784,8 +4349,10 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
-    </row>
-    <row r="107" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+    </row>
+    <row r="107" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3806,8 +4373,10 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
-    </row>
-    <row r="108" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+    </row>
+    <row r="108" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3828,8 +4397,10 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
-    </row>
-    <row r="109" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+    </row>
+    <row r="109" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3850,8 +4421,10 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
-    </row>
-    <row r="110" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3872,8 +4445,10 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
-    </row>
-    <row r="111" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3894,8 +4469,10 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
-    </row>
-    <row r="112" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+    </row>
+    <row r="112" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3916,8 +4493,10 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
-    </row>
-    <row r="113" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3938,8 +4517,10 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
-    </row>
-    <row r="114" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3960,8 +4541,10 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
-    </row>
-    <row r="115" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+    </row>
+    <row r="115" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3982,8 +4565,10 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
-    </row>
-    <row r="116" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+    </row>
+    <row r="116" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4004,8 +4589,10 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
-    </row>
-    <row r="117" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+    </row>
+    <row r="117" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4026,8 +4613,10 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
-    </row>
-    <row r="118" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+    </row>
+    <row r="118" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4048,8 +4637,10 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
-    </row>
-    <row r="119" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+    </row>
+    <row r="119" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4070,8 +4661,10 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
-    </row>
-    <row r="120" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+    </row>
+    <row r="120" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4092,8 +4685,10 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
-    </row>
-    <row r="121" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+    </row>
+    <row r="121" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4114,8 +4709,10 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
-    </row>
-    <row r="122" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+    </row>
+    <row r="122" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4136,8 +4733,10 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
-    </row>
-    <row r="123" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+    </row>
+    <row r="123" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4158,8 +4757,10 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
-    </row>
-    <row r="124" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+    </row>
+    <row r="124" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4180,8 +4781,10 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
-    </row>
-    <row r="125" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+    </row>
+    <row r="125" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4202,8 +4805,10 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
-    </row>
-    <row r="126" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+    </row>
+    <row r="126" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4224,8 +4829,10 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
-    </row>
-    <row r="127" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+    </row>
+    <row r="127" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4246,8 +4853,10 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
-    </row>
-    <row r="128" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+    </row>
+    <row r="128" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4268,8 +4877,10 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
-    </row>
-    <row r="129" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+    </row>
+    <row r="129" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4290,8 +4901,10 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
-    </row>
-    <row r="130" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+    </row>
+    <row r="130" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4312,8 +4925,10 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
-    </row>
-    <row r="131" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
+    </row>
+    <row r="131" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4334,8 +4949,10 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
-    </row>
-    <row r="132" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+    </row>
+    <row r="132" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4356,8 +4973,10 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
-    </row>
-    <row r="133" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+    </row>
+    <row r="133" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4378,8 +4997,10 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
-    </row>
-    <row r="134" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+    </row>
+    <row r="134" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4400,8 +5021,10 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
-    </row>
-    <row r="135" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+    </row>
+    <row r="135" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4422,8 +5045,10 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
-    </row>
-    <row r="136" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+    </row>
+    <row r="136" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4444,8 +5069,10 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
-    </row>
-    <row r="137" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+    </row>
+    <row r="137" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4466,8 +5093,10 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
-    </row>
-    <row r="138" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+    </row>
+    <row r="138" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4488,8 +5117,10 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
-    </row>
-    <row r="139" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+    </row>
+    <row r="139" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4510,8 +5141,10 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
-    </row>
-    <row r="140" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+    </row>
+    <row r="140" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4532,8 +5165,10 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
-    </row>
-    <row r="141" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+    </row>
+    <row r="141" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4554,8 +5189,10 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
-    </row>
-    <row r="142" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
+    </row>
+    <row r="142" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4576,8 +5213,10 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
-    </row>
-    <row r="143" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+    </row>
+    <row r="143" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4598,8 +5237,10 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
-    </row>
-    <row r="144" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+    </row>
+    <row r="144" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4620,8 +5261,10 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
-    </row>
-    <row r="145" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+    </row>
+    <row r="145" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4642,8 +5285,10 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
-    </row>
-    <row r="146" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+    </row>
+    <row r="146" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4664,8 +5309,10 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
-    </row>
-    <row r="147" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+    </row>
+    <row r="147" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4686,8 +5333,10 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
-    </row>
-    <row r="148" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+    </row>
+    <row r="148" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4708,8 +5357,10 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
-    </row>
-    <row r="149" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+    </row>
+    <row r="149" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -4730,8 +5381,10 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
-    </row>
-    <row r="150" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+    </row>
+    <row r="150" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -4752,8 +5405,10 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
-    </row>
-    <row r="151" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+    </row>
+    <row r="151" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -4774,8 +5429,10 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
-    </row>
-    <row r="152" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+    </row>
+    <row r="152" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -4796,8 +5453,10 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
-    </row>
-    <row r="153" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+    </row>
+    <row r="153" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -4818,8 +5477,10 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
-    </row>
-    <row r="154" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+    </row>
+    <row r="154" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -4840,8 +5501,10 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
-    </row>
-    <row r="155" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+    </row>
+    <row r="155" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -4862,8 +5525,10 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
-    </row>
-    <row r="156" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+    </row>
+    <row r="156" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -4884,8 +5549,10 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
-    </row>
-    <row r="157" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -4906,8 +5573,10 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
-    </row>
-    <row r="158" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -4928,8 +5597,10 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
-    </row>
-    <row r="159" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+    </row>
+    <row r="159" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -4950,8 +5621,10 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
-    </row>
-    <row r="160" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+    </row>
+    <row r="160" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -4972,8 +5645,10 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
-    </row>
-    <row r="161" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+    </row>
+    <row r="161" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -4994,8 +5669,10 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
-    </row>
-    <row r="162" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+    </row>
+    <row r="162" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5016,8 +5693,10 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
-    </row>
-    <row r="163" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+    </row>
+    <row r="163" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5038,8 +5717,10 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
-    </row>
-    <row r="164" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+    </row>
+    <row r="164" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5060,8 +5741,10 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
-    </row>
-    <row r="165" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+    </row>
+    <row r="165" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5082,8 +5765,10 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
-    </row>
-    <row r="166" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V165" s="1"/>
+      <c r="W165" s="1"/>
+    </row>
+    <row r="166" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5104,8 +5789,10 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
-    </row>
-    <row r="167" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
+    </row>
+    <row r="167" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5126,8 +5813,10 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
-    </row>
-    <row r="168" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V167" s="1"/>
+      <c r="W167" s="1"/>
+    </row>
+    <row r="168" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5148,8 +5837,10 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
-    </row>
-    <row r="169" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V168" s="1"/>
+      <c r="W168" s="1"/>
+    </row>
+    <row r="169" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5170,8 +5861,10 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
-    </row>
-    <row r="170" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V169" s="1"/>
+      <c r="W169" s="1"/>
+    </row>
+    <row r="170" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5192,8 +5885,10 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
-    </row>
-    <row r="171" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
+    </row>
+    <row r="171" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5214,8 +5909,10 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
-    </row>
-    <row r="172" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V171" s="1"/>
+      <c r="W171" s="1"/>
+    </row>
+    <row r="172" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5236,8 +5933,10 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
-    </row>
-    <row r="173" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V172" s="1"/>
+      <c r="W172" s="1"/>
+    </row>
+    <row r="173" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -5258,8 +5957,10 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
-    </row>
-    <row r="174" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
+    </row>
+    <row r="174" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5280,8 +5981,10 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
-    </row>
-    <row r="175" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V174" s="1"/>
+      <c r="W174" s="1"/>
+    </row>
+    <row r="175" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -5302,8 +6005,10 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
-    </row>
-    <row r="176" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+    </row>
+    <row r="176" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5324,8 +6029,10 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
-    </row>
-    <row r="177" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+    </row>
+    <row r="177" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -5346,8 +6053,10 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
-    </row>
-    <row r="178" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+    </row>
+    <row r="178" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -5368,8 +6077,10 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
-    </row>
-    <row r="179" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V178" s="1"/>
+      <c r="W178" s="1"/>
+    </row>
+    <row r="179" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -5390,8 +6101,10 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
-    </row>
-    <row r="180" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
+    </row>
+    <row r="180" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -5412,8 +6125,10 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
-    </row>
-    <row r="181" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+    </row>
+    <row r="181" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -5434,8 +6149,10 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
-    </row>
-    <row r="182" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+    </row>
+    <row r="182" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -5456,8 +6173,10 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
-    </row>
-    <row r="183" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V182" s="1"/>
+      <c r="W182" s="1"/>
+    </row>
+    <row r="183" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -5478,8 +6197,10 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
-    </row>
-    <row r="184" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V183" s="1"/>
+      <c r="W183" s="1"/>
+    </row>
+    <row r="184" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -5500,8 +6221,10 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
-    </row>
-    <row r="185" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V184" s="1"/>
+      <c r="W184" s="1"/>
+    </row>
+    <row r="185" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -5522,8 +6245,10 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
-    </row>
-    <row r="186" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V185" s="1"/>
+      <c r="W185" s="1"/>
+    </row>
+    <row r="186" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -5544,8 +6269,10 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
-    </row>
-    <row r="187" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V186" s="1"/>
+      <c r="W186" s="1"/>
+    </row>
+    <row r="187" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -5566,8 +6293,10 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
-    </row>
-    <row r="188" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V187" s="1"/>
+      <c r="W187" s="1"/>
+    </row>
+    <row r="188" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -5588,8 +6317,10 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
-    </row>
-    <row r="189" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V188" s="1"/>
+      <c r="W188" s="1"/>
+    </row>
+    <row r="189" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -5610,8 +6341,10 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
-    </row>
-    <row r="190" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V189" s="1"/>
+      <c r="W189" s="1"/>
+    </row>
+    <row r="190" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -5632,8 +6365,10 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
-    </row>
-    <row r="191" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V190" s="1"/>
+      <c r="W190" s="1"/>
+    </row>
+    <row r="191" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -5654,8 +6389,10 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
-    </row>
-    <row r="192" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V191" s="1"/>
+      <c r="W191" s="1"/>
+    </row>
+    <row r="192" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -5676,8 +6413,10 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
-    </row>
-    <row r="193" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V192" s="1"/>
+      <c r="W192" s="1"/>
+    </row>
+    <row r="193" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -5698,8 +6437,10 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
-    </row>
-    <row r="194" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+    </row>
+    <row r="194" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -5720,8 +6461,10 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
-    </row>
-    <row r="195" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+    </row>
+    <row r="195" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -5742,8 +6485,10 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
-    </row>
-    <row r="196" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
+    </row>
+    <row r="196" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -5764,8 +6509,10 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
-    </row>
-    <row r="197" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+    </row>
+    <row r="197" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -5786,8 +6533,10 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
-    </row>
-    <row r="198" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+    </row>
+    <row r="198" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -5808,8 +6557,10 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
-    </row>
-    <row r="199" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V198" s="1"/>
+      <c r="W198" s="1"/>
+    </row>
+    <row r="199" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -5830,8 +6581,10 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
-    </row>
-    <row r="200" spans="2:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
+    </row>
+    <row r="200" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -5852,266 +6605,16 @@
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
+      <c r="W200" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:K53">
-    <sortState ref="C3:K53">
-      <sortCondition ref="K2:K53"/>
+  <autoFilter ref="C2:M53">
+    <sortState ref="C3:L53">
+      <sortCondition ref="D2:D53"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A87">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>